--- a/data/trans_orig/IBSE_100-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/IBSE_100-Dificultad-trans_orig.xlsx
@@ -563,10 +563,10 @@
         <v>66.77056039377949</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>63.71623692105366</v>
+        <v>63.71623692105367</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65.07934718163001</v>
+        <v>65.07934718163</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>64.5662050907538</v>
+        <v>64.438964026847</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>61.99527172907711</v>
+        <v>62.05355926222492</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>63.77420085941704</v>
+        <v>63.65083809776666</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>69.003795502568</v>
+        <v>69.00269918865335</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>65.31343168959305</v>
+        <v>65.53441058129467</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>66.56619535816404</v>
+        <v>66.47542931747235</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>75.54902428706777</v>
+        <v>75.58794046248737</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>71.36638076364304</v>
+        <v>71.35974456063832</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>73.60091901765489</v>
+        <v>73.57207785226694</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>78.00514687659175</v>
+        <v>78.00873976677639</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>73.37666152946984</v>
+        <v>73.29864378301592</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>75.14176013394938</v>
+        <v>75.1227353811359</v>
       </c>
     </row>
     <row r="10">
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>81.37880955634016</v>
+        <v>81.37880955634014</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>77.38428587713648</v>
+        <v>77.38428587713651</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>79.38525099619746</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>80.36044980177564</v>
+        <v>80.39960855521572</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>76.41065264746324</v>
+        <v>76.31435279567802</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>78.70346017145863</v>
+        <v>78.70995959508178</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>82.42265200813605</v>
+        <v>82.38068042603061</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>78.24494861040351</v>
+        <v>78.20314068458821</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>80.12745352794906</v>
+        <v>80.07324181184269</v>
       </c>
     </row>
     <row r="13">
@@ -728,10 +728,10 @@
         <v>80.94970499159459</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>78.86747116757687</v>
+        <v>78.86747116757688</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79.94552520207277</v>
+        <v>79.94552520207276</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>79.68647510867886</v>
+        <v>79.82934493192019</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>77.74087449921062</v>
+        <v>77.78282765696078</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>79.10135487444258</v>
+        <v>79.14209249232472</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>82.04010935288838</v>
+        <v>82.07407739615847</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>79.84718574967873</v>
+        <v>79.8300317051692</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>80.65393606472459</v>
+        <v>80.67359000450639</v>
       </c>
     </row>
     <row r="16">
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>77.91115555447139</v>
+        <v>77.91115555447138</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>73.94190579646292</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>75.87064396575393</v>
+        <v>75.87064396575394</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>77.31124889662421</v>
+        <v>77.24676575948526</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>73.38418235497458</v>
+        <v>73.33964586829232</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>75.398546203983</v>
+        <v>75.4365816539991</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>78.68088831211169</v>
+        <v>78.55672042202839</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>74.49657864058801</v>
+        <v>74.55477268362928</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>76.29661010577185</v>
+        <v>76.34742939518269</v>
       </c>
     </row>
     <row r="19">
